--- a/matruce de dépendances fonctionelles.xlsx
+++ b/matruce de dépendances fonctionelles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID_Potion</t>
   </si>
@@ -194,8 +194,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -506,152 +534,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="35" width="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1">
+        <f>1+B1</f>
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <f t="shared" ref="D1:AI1" si="0">1+C1</f>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>24</v>
+      <c r="AI1" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
